--- a/biology/Histoire de la zoologie et de la botanique/Henri_de_Lacaze-Duthiers/Henri_de_Lacaze-Duthiers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_de_Lacaze-Duthiers/Henri_de_Lacaze-Duthiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Félix Joseph Henri de Lacaze-Duthiers est un anatomiste, un marin, biologiste et un zoologiste français, né le 15 mai 1821 à Montpezat (Lot-et-Garonne) et mort le 21 juillet 1901 au château de Las Fonts à Alles sur Dordogne (Dordogne).
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri de Lacaze-Duthiers est le second fils du baron de Lacaze-Duthiers, descendant d'une ancienne famille gasconne[1]. Il étudie la médecine à Paris. Il assiste aux cours d'Henri-Marie Ducrotay de Blainville (1777-1850) et d'Henri Milne-Edwards (1800-1885) et devient, après sa licence, son préparateur à la Sorbonne. Il est interne à l’hôpital Necker auprès d’Armand Trousseau (1801-1867). Il obtient son titre de docteur en 1851 avec une thèse intitulée De la Paracentèse de la poitrine, et des épanchements pleurétiques qui nécessitent son emploi. En 1852, il doit quitter ses fonctions après avoir refusé de prêter serment après le coup d’État de Louis-Napoléon Bonaparte (1808-1873). Il obtient le doctorat ès sciences l’année suivante. Lacaze-Duthiers part alors aux Baléares pour y étudier les animaux marins, et est accompagné par son ami Jules Haime (1824-1856).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri de Lacaze-Duthiers est le second fils du baron de Lacaze-Duthiers, descendant d'une ancienne famille gasconne. Il étudie la médecine à Paris. Il assiste aux cours d'Henri-Marie Ducrotay de Blainville (1777-1850) et d'Henri Milne-Edwards (1800-1885) et devient, après sa licence, son préparateur à la Sorbonne. Il est interne à l’hôpital Necker auprès d’Armand Trousseau (1801-1867). Il obtient son titre de docteur en 1851 avec une thèse intitulée De la Paracentèse de la poitrine, et des épanchements pleurétiques qui nécessitent son emploi. En 1852, il doit quitter ses fonctions après avoir refusé de prêter serment après le coup d’État de Louis-Napoléon Bonaparte (1808-1873). Il obtient le doctorat ès sciences l’année suivante. Lacaze-Duthiers part alors aux Baléares pour y étudier les animaux marins, et est accompagné par son ami Jules Haime (1824-1856).
 Il revient à Paris en 1854 et obtient, grâce à Henri Milne-Edwards un poste de professeur de zoologie à la faculté de Lille. Le doyen de la faculté n’est autre que Louis Pasteur (1822-1895) qui le recommande en 1863 comme maître de conférence à l’École normale supérieure, où Alfred Giard et Edmond Perrier sont ses élèves.
-En 1864, il commence à remplacer Achille Valenciennes (1794-1865) au Muséum national d'histoire naturelle et obtient sa chaire d’histoire naturelle des mollusques, des vers et des zoophytes l’année suivante. Il est élu à l’Académie des sciences en 1871. Il fonde deux laboratoires consacrés à la biologie marine: le laboratoire de Roscoff en 1872 et le laboratoire Arago[2] en 1882 à Banyuls-sur-Mer. Sa dépouille est enterrée à proximité de ce dernier établissement, face à la mer, dans un monument surmonté d'une statue[3].
+En 1864, il commence à remplacer Achille Valenciennes (1794-1865) au Muséum national d'histoire naturelle et obtient sa chaire d’histoire naturelle des mollusques, des vers et des zoophytes l’année suivante. Il est élu à l’Académie des sciences en 1871. Il fonde deux laboratoires consacrés à la biologie marine: le laboratoire de Roscoff en 1872 et le laboratoire Arago en 1882 à Banyuls-sur-Mer. Sa dépouille est enterrée à proximité de ce dernier établissement, face à la mer, dans un monument surmonté d'une statue.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri de Lacaze-Duthiers est l’auteur de plus de 250 publications, notamment :
 Recherches sur l'armure génitale femelle des insectes, Paris, L. Martinet, 1853 (lire en ligne)
